--- a/2022/02_JAVA_Class/db/doc/테이블명세서.xlsx
+++ b/2022/02_JAVA_Class/db/doc/테이블명세서.xlsx
@@ -8,17 +8,18 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Workspace\2022\02_JAVA_Class\db\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EDAC5DB2-D847-45B9-90A6-647708AF5444}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E2EC3B74-2075-4F77-8017-4131989ECD37}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9390" yWindow="120" windowWidth="16100" windowHeight="15160" tabRatio="829" firstSheet="1" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" tabRatio="829" firstSheet="1" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="데이터베이스 명세서" sheetId="1" r:id="rId1"/>
     <sheet name="Entity 정의서" sheetId="2" r:id="rId2"/>
     <sheet name="회원 테이블  명세서" sheetId="3" r:id="rId3"/>
     <sheet name="게시판 테이블  명세서" sheetId="6" r:id="rId4"/>
-    <sheet name="파일정보 테이블  명세서" sheetId="5" r:id="rId5"/>
-    <sheet name="샘플 테이블  명세서" sheetId="4" r:id="rId6"/>
+    <sheet name="방명록 테이블 명세서" sheetId="7" r:id="rId5"/>
+    <sheet name="파일정보 테이블  명세서" sheetId="5" r:id="rId6"/>
+    <sheet name="샘플 테이블  명세서" sheetId="4" r:id="rId7"/>
   </sheets>
   <calcPr calcId="0"/>
   <extLst>
@@ -33,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="334" uniqueCount="153">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="386" uniqueCount="165">
   <si>
     <t>관리자권한여부</t>
   </si>
@@ -729,6 +730,54 @@
   </si>
   <si>
     <t>NULL</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>GuestBoard</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>방명록 테이블</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>2022.04.05</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>글내용</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>guest_bno</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>guest_bname</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>guest_bfield</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>guest_wdate</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>isshow</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>Y'</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>CHECK IN ('Y', 'N'), Y:노출, N:숨김</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>REFERENCES member(user_name)</t>
     <phoneticPr fontId="11" type="noConversion"/>
   </si>
 </sst>
@@ -1896,6 +1945,60 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="8" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="7" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="7" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="7" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="8" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="7" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="7" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="7" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="8" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="8" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="21" fillId="7" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="22" fillId="7" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="22" fillId="7" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="9" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="7" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="7" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="15" fillId="9" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1935,58 +2038,43 @@
     <xf numFmtId="0" fontId="19" fillId="10" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="8" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="8" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="7" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="7" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="7" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="8" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="7" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="7" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="7" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="8" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="8" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="21" fillId="7" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="22" fillId="7" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="22" fillId="7" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="9" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="7" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="7" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="43" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2038,45 +2126,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="43" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -2834,78 +2883,78 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:15">
-      <c r="B2" s="116" t="s">
+      <c r="B2" s="103" t="s">
         <v>34</v>
       </c>
-      <c r="C2" s="117"/>
-      <c r="D2" s="118" t="s">
+      <c r="C2" s="104"/>
+      <c r="D2" s="105" t="s">
         <v>76</v>
       </c>
-      <c r="E2" s="119"/>
-      <c r="F2" s="119"/>
-      <c r="G2" s="119"/>
-      <c r="H2" s="119"/>
-      <c r="I2" s="119"/>
-      <c r="J2" s="119"/>
-      <c r="K2" s="119"/>
-      <c r="L2" s="119"/>
-      <c r="M2" s="120"/>
+      <c r="E2" s="106"/>
+      <c r="F2" s="106"/>
+      <c r="G2" s="106"/>
+      <c r="H2" s="106"/>
+      <c r="I2" s="106"/>
+      <c r="J2" s="106"/>
+      <c r="K2" s="106"/>
+      <c r="L2" s="106"/>
+      <c r="M2" s="107"/>
     </row>
     <row r="3" spans="2:15">
-      <c r="B3" s="121" t="s">
+      <c r="B3" s="108" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="122"/>
-      <c r="D3" s="123" t="s">
+      <c r="C3" s="109"/>
+      <c r="D3" s="110" t="s">
         <v>84</v>
       </c>
-      <c r="E3" s="124"/>
-      <c r="F3" s="124"/>
-      <c r="G3" s="124"/>
-      <c r="H3" s="124"/>
-      <c r="I3" s="124"/>
-      <c r="J3" s="124"/>
-      <c r="K3" s="124"/>
-      <c r="L3" s="124"/>
-      <c r="M3" s="125"/>
+      <c r="E3" s="111"/>
+      <c r="F3" s="111"/>
+      <c r="G3" s="111"/>
+      <c r="H3" s="111"/>
+      <c r="I3" s="111"/>
+      <c r="J3" s="111"/>
+      <c r="K3" s="111"/>
+      <c r="L3" s="111"/>
+      <c r="M3" s="112"/>
     </row>
     <row r="4" spans="2:15">
-      <c r="B4" s="126" t="s">
+      <c r="B4" s="113" t="s">
         <v>13</v>
       </c>
-      <c r="C4" s="127"/>
-      <c r="D4" s="128" t="s">
+      <c r="C4" s="114"/>
+      <c r="D4" s="115" t="s">
         <v>85</v>
       </c>
-      <c r="E4" s="129"/>
-      <c r="F4" s="129"/>
-      <c r="G4" s="129"/>
-      <c r="H4" s="129"/>
-      <c r="I4" s="130"/>
-      <c r="J4" s="131" t="s">
+      <c r="E4" s="116"/>
+      <c r="F4" s="116"/>
+      <c r="G4" s="116"/>
+      <c r="H4" s="116"/>
+      <c r="I4" s="117"/>
+      <c r="J4" s="118" t="s">
         <v>12</v>
       </c>
-      <c r="K4" s="131"/>
-      <c r="L4" s="132" t="s">
+      <c r="K4" s="118"/>
+      <c r="L4" s="119" t="s">
         <v>86</v>
       </c>
-      <c r="M4" s="133"/>
+      <c r="M4" s="120"/>
     </row>
     <row r="5" spans="2:15" ht="23.5" thickBot="1">
-      <c r="B5" s="103" t="s">
+      <c r="B5" s="121" t="s">
         <v>19</v>
       </c>
-      <c r="C5" s="104"/>
-      <c r="D5" s="104"/>
-      <c r="E5" s="104"/>
-      <c r="F5" s="104"/>
-      <c r="G5" s="104"/>
-      <c r="H5" s="104"/>
-      <c r="I5" s="104"/>
-      <c r="J5" s="104"/>
-      <c r="K5" s="104"/>
-      <c r="L5" s="104"/>
-      <c r="M5" s="105"/>
+      <c r="C5" s="122"/>
+      <c r="D5" s="122"/>
+      <c r="E5" s="122"/>
+      <c r="F5" s="122"/>
+      <c r="G5" s="122"/>
+      <c r="H5" s="122"/>
+      <c r="I5" s="122"/>
+      <c r="J5" s="122"/>
+      <c r="K5" s="122"/>
+      <c r="L5" s="122"/>
+      <c r="M5" s="123"/>
     </row>
     <row r="6" spans="2:15" ht="17.5" thickBot="1">
       <c r="B6" s="55" t="s">
@@ -3385,46 +3434,51 @@
       <c r="M26" s="89"/>
     </row>
     <row r="27" spans="2:16">
-      <c r="B27" s="106" t="s">
+      <c r="B27" s="124" t="s">
         <v>4</v>
       </c>
-      <c r="C27" s="107"/>
-      <c r="D27" s="108" t="s">
+      <c r="C27" s="125"/>
+      <c r="D27" s="126" t="s">
         <v>87</v>
       </c>
-      <c r="E27" s="109"/>
-      <c r="F27" s="109"/>
-      <c r="G27" s="109"/>
-      <c r="H27" s="109"/>
-      <c r="I27" s="109"/>
-      <c r="J27" s="109"/>
-      <c r="K27" s="109"/>
-      <c r="L27" s="109"/>
-      <c r="M27" s="110"/>
+      <c r="E27" s="127"/>
+      <c r="F27" s="127"/>
+      <c r="G27" s="127"/>
+      <c r="H27" s="127"/>
+      <c r="I27" s="127"/>
+      <c r="J27" s="127"/>
+      <c r="K27" s="127"/>
+      <c r="L27" s="127"/>
+      <c r="M27" s="128"/>
     </row>
     <row r="28" spans="2:16" ht="17.5" thickBot="1">
-      <c r="B28" s="111" t="s">
+      <c r="B28" s="129" t="s">
         <v>36</v>
       </c>
-      <c r="C28" s="112"/>
-      <c r="D28" s="113" t="s">
+      <c r="C28" s="130"/>
+      <c r="D28" s="131" t="s">
         <v>74</v>
       </c>
-      <c r="E28" s="114"/>
-      <c r="F28" s="114"/>
-      <c r="G28" s="114"/>
-      <c r="H28" s="114"/>
-      <c r="I28" s="114"/>
-      <c r="J28" s="114"/>
-      <c r="K28" s="114"/>
-      <c r="L28" s="114"/>
-      <c r="M28" s="115"/>
+      <c r="E28" s="132"/>
+      <c r="F28" s="132"/>
+      <c r="G28" s="132"/>
+      <c r="H28" s="132"/>
+      <c r="I28" s="132"/>
+      <c r="J28" s="132"/>
+      <c r="K28" s="132"/>
+      <c r="L28" s="132"/>
+      <c r="M28" s="133"/>
     </row>
     <row r="34" spans="5:5">
       <c r="E34"/>
     </row>
   </sheetData>
   <mergeCells count="13">
+    <mergeCell ref="B5:M5"/>
+    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="D27:M27"/>
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="D28:M28"/>
     <mergeCell ref="B2:C2"/>
     <mergeCell ref="D2:M2"/>
     <mergeCell ref="B3:C3"/>
@@ -3433,11 +3487,6 @@
     <mergeCell ref="D4:I4"/>
     <mergeCell ref="J4:K4"/>
     <mergeCell ref="L4:M4"/>
-    <mergeCell ref="B5:M5"/>
-    <mergeCell ref="B27:C27"/>
-    <mergeCell ref="D27:M27"/>
-    <mergeCell ref="B28:C28"/>
-    <mergeCell ref="D28:M28"/>
   </mergeCells>
   <phoneticPr fontId="11" type="noConversion"/>
   <pageMargins left="0.69986110925674438" right="0.69986110925674438" top="0.75" bottom="0.75" header="0.30000001192092896" footer="0.30000001192092896"/>
@@ -3452,7 +3501,7 @@
   </sheetPr>
   <dimension ref="B1:P28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="68" zoomScaleNormal="68" zoomScaleSheetLayoutView="75" workbookViewId="0">
+    <sheetView topLeftCell="B1" zoomScale="68" zoomScaleNormal="68" zoomScaleSheetLayoutView="75" workbookViewId="0">
       <selection activeCell="K17" sqref="K17"/>
     </sheetView>
   </sheetViews>
@@ -3472,78 +3521,78 @@
   <sheetData>
     <row r="1" spans="2:15" ht="17.5" thickBot="1"/>
     <row r="2" spans="2:15">
-      <c r="B2" s="116" t="s">
+      <c r="B2" s="103" t="s">
         <v>34</v>
       </c>
-      <c r="C2" s="117"/>
-      <c r="D2" s="118" t="s">
+      <c r="C2" s="104"/>
+      <c r="D2" s="105" t="s">
         <v>80</v>
       </c>
-      <c r="E2" s="119"/>
-      <c r="F2" s="119"/>
-      <c r="G2" s="119"/>
-      <c r="H2" s="119"/>
-      <c r="I2" s="119"/>
-      <c r="J2" s="119"/>
-      <c r="K2" s="119"/>
-      <c r="L2" s="119"/>
-      <c r="M2" s="120"/>
+      <c r="E2" s="106"/>
+      <c r="F2" s="106"/>
+      <c r="G2" s="106"/>
+      <c r="H2" s="106"/>
+      <c r="I2" s="106"/>
+      <c r="J2" s="106"/>
+      <c r="K2" s="106"/>
+      <c r="L2" s="106"/>
+      <c r="M2" s="107"/>
     </row>
     <row r="3" spans="2:15">
-      <c r="B3" s="121" t="s">
+      <c r="B3" s="108" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="122"/>
-      <c r="D3" s="123" t="s">
+      <c r="C3" s="109"/>
+      <c r="D3" s="110" t="s">
         <v>77</v>
       </c>
-      <c r="E3" s="124"/>
-      <c r="F3" s="124"/>
-      <c r="G3" s="124"/>
-      <c r="H3" s="124"/>
-      <c r="I3" s="124"/>
-      <c r="J3" s="124"/>
-      <c r="K3" s="124"/>
-      <c r="L3" s="124"/>
-      <c r="M3" s="125"/>
+      <c r="E3" s="111"/>
+      <c r="F3" s="111"/>
+      <c r="G3" s="111"/>
+      <c r="H3" s="111"/>
+      <c r="I3" s="111"/>
+      <c r="J3" s="111"/>
+      <c r="K3" s="111"/>
+      <c r="L3" s="111"/>
+      <c r="M3" s="112"/>
     </row>
     <row r="4" spans="2:15" ht="17.5" thickBot="1">
-      <c r="B4" s="126" t="s">
+      <c r="B4" s="113" t="s">
         <v>13</v>
       </c>
-      <c r="C4" s="127"/>
-      <c r="D4" s="128" t="s">
+      <c r="C4" s="114"/>
+      <c r="D4" s="115" t="s">
         <v>85</v>
       </c>
-      <c r="E4" s="129"/>
-      <c r="F4" s="129"/>
-      <c r="G4" s="129"/>
-      <c r="H4" s="129"/>
-      <c r="I4" s="130"/>
-      <c r="J4" s="131" t="s">
+      <c r="E4" s="116"/>
+      <c r="F4" s="116"/>
+      <c r="G4" s="116"/>
+      <c r="H4" s="116"/>
+      <c r="I4" s="117"/>
+      <c r="J4" s="118" t="s">
         <v>12</v>
       </c>
-      <c r="K4" s="131"/>
-      <c r="L4" s="132" t="s">
+      <c r="K4" s="118"/>
+      <c r="L4" s="119" t="s">
         <v>86</v>
       </c>
-      <c r="M4" s="133"/>
+      <c r="M4" s="120"/>
     </row>
     <row r="5" spans="2:15" ht="23.5" thickBot="1">
-      <c r="B5" s="103" t="s">
+      <c r="B5" s="121" t="s">
         <v>19</v>
       </c>
-      <c r="C5" s="104"/>
-      <c r="D5" s="104"/>
-      <c r="E5" s="104"/>
-      <c r="F5" s="104"/>
-      <c r="G5" s="104"/>
-      <c r="H5" s="104"/>
-      <c r="I5" s="104"/>
-      <c r="J5" s="104"/>
-      <c r="K5" s="104"/>
-      <c r="L5" s="104"/>
-      <c r="M5" s="105"/>
+      <c r="C5" s="122"/>
+      <c r="D5" s="122"/>
+      <c r="E5" s="122"/>
+      <c r="F5" s="122"/>
+      <c r="G5" s="122"/>
+      <c r="H5" s="122"/>
+      <c r="I5" s="122"/>
+      <c r="J5" s="122"/>
+      <c r="K5" s="122"/>
+      <c r="L5" s="122"/>
+      <c r="M5" s="123"/>
     </row>
     <row r="6" spans="2:15" ht="17.5" thickBot="1">
       <c r="B6" s="55" t="s">
@@ -4007,43 +4056,48 @@
       <c r="M26" s="89"/>
     </row>
     <row r="27" spans="2:16">
-      <c r="B27" s="106" t="s">
+      <c r="B27" s="124" t="s">
         <v>4</v>
       </c>
-      <c r="C27" s="107"/>
-      <c r="D27" s="108" t="s">
+      <c r="C27" s="125"/>
+      <c r="D27" s="126" t="s">
         <v>87</v>
       </c>
-      <c r="E27" s="109"/>
-      <c r="F27" s="109"/>
-      <c r="G27" s="109"/>
-      <c r="H27" s="109"/>
-      <c r="I27" s="109"/>
-      <c r="J27" s="109"/>
-      <c r="K27" s="109"/>
-      <c r="L27" s="109"/>
-      <c r="M27" s="110"/>
+      <c r="E27" s="127"/>
+      <c r="F27" s="127"/>
+      <c r="G27" s="127"/>
+      <c r="H27" s="127"/>
+      <c r="I27" s="127"/>
+      <c r="J27" s="127"/>
+      <c r="K27" s="127"/>
+      <c r="L27" s="127"/>
+      <c r="M27" s="128"/>
     </row>
     <row r="28" spans="2:16" ht="17.5" thickBot="1">
-      <c r="B28" s="111" t="s">
+      <c r="B28" s="129" t="s">
         <v>36</v>
       </c>
-      <c r="C28" s="112"/>
-      <c r="D28" s="113" t="s">
+      <c r="C28" s="130"/>
+      <c r="D28" s="131" t="s">
         <v>74</v>
       </c>
-      <c r="E28" s="114"/>
-      <c r="F28" s="114"/>
-      <c r="G28" s="114"/>
-      <c r="H28" s="114"/>
-      <c r="I28" s="114"/>
-      <c r="J28" s="114"/>
-      <c r="K28" s="114"/>
-      <c r="L28" s="114"/>
-      <c r="M28" s="115"/>
+      <c r="E28" s="132"/>
+      <c r="F28" s="132"/>
+      <c r="G28" s="132"/>
+      <c r="H28" s="132"/>
+      <c r="I28" s="132"/>
+      <c r="J28" s="132"/>
+      <c r="K28" s="132"/>
+      <c r="L28" s="132"/>
+      <c r="M28" s="133"/>
     </row>
   </sheetData>
   <mergeCells count="13">
+    <mergeCell ref="B5:M5"/>
+    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="D27:M27"/>
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="D28:M28"/>
     <mergeCell ref="B2:C2"/>
     <mergeCell ref="D2:M2"/>
     <mergeCell ref="B3:C3"/>
@@ -4052,11 +4106,6 @@
     <mergeCell ref="D4:I4"/>
     <mergeCell ref="J4:K4"/>
     <mergeCell ref="L4:M4"/>
-    <mergeCell ref="B5:M5"/>
-    <mergeCell ref="B27:C27"/>
-    <mergeCell ref="D27:M27"/>
-    <mergeCell ref="B28:C28"/>
-    <mergeCell ref="D28:M28"/>
   </mergeCells>
   <phoneticPr fontId="11" type="noConversion"/>
   <pageMargins left="0.69986110925674438" right="0.69986110925674438" top="0.75" bottom="0.75" header="0.30000001192092896" footer="0.30000001192092896"/>
@@ -4065,6 +4114,585 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E7C52663-3392-48B6-8926-59F698AC9D2E}">
+  <sheetPr>
+    <tabColor rgb="FFC0504D"/>
+  </sheetPr>
+  <dimension ref="B1:P28"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="68" zoomScaleNormal="68" zoomScaleSheetLayoutView="75" workbookViewId="0">
+      <selection activeCell="M9" sqref="M9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.83203125" defaultRowHeight="17"/>
+  <cols>
+    <col min="1" max="1" width="5.6640625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="7.6640625" style="1" customWidth="1"/>
+    <col min="3" max="5" width="15.6640625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="12.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="10" width="7.6640625" style="1" customWidth="1"/>
+    <col min="11" max="12" width="10.6640625" style="1" customWidth="1"/>
+    <col min="13" max="13" width="30.6640625" style="1" customWidth="1"/>
+    <col min="14" max="14" width="8.83203125" style="1"/>
+    <col min="15" max="15" width="27" style="1" customWidth="1"/>
+    <col min="16" max="16384" width="8.83203125" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:15" ht="17.5" thickBot="1"/>
+    <row r="2" spans="2:15">
+      <c r="B2" s="103" t="s">
+        <v>34</v>
+      </c>
+      <c r="C2" s="104"/>
+      <c r="D2" s="105" t="s">
+        <v>153</v>
+      </c>
+      <c r="E2" s="106"/>
+      <c r="F2" s="106"/>
+      <c r="G2" s="106"/>
+      <c r="H2" s="106"/>
+      <c r="I2" s="106"/>
+      <c r="J2" s="106"/>
+      <c r="K2" s="106"/>
+      <c r="L2" s="106"/>
+      <c r="M2" s="107"/>
+    </row>
+    <row r="3" spans="2:15">
+      <c r="B3" s="108" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3" s="109"/>
+      <c r="D3" s="110" t="s">
+        <v>154</v>
+      </c>
+      <c r="E3" s="111"/>
+      <c r="F3" s="111"/>
+      <c r="G3" s="111"/>
+      <c r="H3" s="111"/>
+      <c r="I3" s="111"/>
+      <c r="J3" s="111"/>
+      <c r="K3" s="111"/>
+      <c r="L3" s="111"/>
+      <c r="M3" s="112"/>
+    </row>
+    <row r="4" spans="2:15" ht="17.5" thickBot="1">
+      <c r="B4" s="113" t="s">
+        <v>13</v>
+      </c>
+      <c r="C4" s="114"/>
+      <c r="D4" s="115" t="s">
+        <v>155</v>
+      </c>
+      <c r="E4" s="116"/>
+      <c r="F4" s="116"/>
+      <c r="G4" s="116"/>
+      <c r="H4" s="116"/>
+      <c r="I4" s="117"/>
+      <c r="J4" s="118" t="s">
+        <v>12</v>
+      </c>
+      <c r="K4" s="118"/>
+      <c r="L4" s="119" t="s">
+        <v>86</v>
+      </c>
+      <c r="M4" s="120"/>
+    </row>
+    <row r="5" spans="2:15" ht="23.5" thickBot="1">
+      <c r="B5" s="121" t="s">
+        <v>19</v>
+      </c>
+      <c r="C5" s="122"/>
+      <c r="D5" s="122"/>
+      <c r="E5" s="122"/>
+      <c r="F5" s="122"/>
+      <c r="G5" s="122"/>
+      <c r="H5" s="122"/>
+      <c r="I5" s="122"/>
+      <c r="J5" s="122"/>
+      <c r="K5" s="122"/>
+      <c r="L5" s="122"/>
+      <c r="M5" s="123"/>
+    </row>
+    <row r="6" spans="2:15" ht="17.5" thickBot="1">
+      <c r="B6" s="55" t="s">
+        <v>8</v>
+      </c>
+      <c r="C6" s="56" t="s">
+        <v>68</v>
+      </c>
+      <c r="D6" s="56" t="s">
+        <v>69</v>
+      </c>
+      <c r="E6" s="56" t="s">
+        <v>33</v>
+      </c>
+      <c r="F6" s="56" t="s">
+        <v>20</v>
+      </c>
+      <c r="G6" s="56" t="s">
+        <v>10</v>
+      </c>
+      <c r="H6" s="56" t="s">
+        <v>15</v>
+      </c>
+      <c r="I6" s="56" t="s">
+        <v>9</v>
+      </c>
+      <c r="J6" s="56" t="s">
+        <v>11</v>
+      </c>
+      <c r="K6" s="56" t="s">
+        <v>72</v>
+      </c>
+      <c r="L6" s="56" t="s">
+        <v>21</v>
+      </c>
+      <c r="M6" s="57" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="7" spans="2:15">
+      <c r="B7" s="58">
+        <v>1</v>
+      </c>
+      <c r="C7" s="71" t="s">
+        <v>117</v>
+      </c>
+      <c r="D7" s="71" t="s">
+        <v>157</v>
+      </c>
+      <c r="E7" s="72" t="s">
+        <v>96</v>
+      </c>
+      <c r="F7" s="73">
+        <v>4</v>
+      </c>
+      <c r="G7" s="72" t="s">
+        <v>51</v>
+      </c>
+      <c r="H7" s="72"/>
+      <c r="I7" s="72"/>
+      <c r="J7" s="76"/>
+      <c r="K7" s="72"/>
+      <c r="L7" s="72"/>
+      <c r="M7" s="74"/>
+    </row>
+    <row r="8" spans="2:15">
+      <c r="B8" s="59">
+        <v>2</v>
+      </c>
+      <c r="C8" s="75" t="s">
+        <v>119</v>
+      </c>
+      <c r="D8" s="76" t="s">
+        <v>158</v>
+      </c>
+      <c r="E8" s="76" t="s">
+        <v>96</v>
+      </c>
+      <c r="F8" s="77">
+        <v>4</v>
+      </c>
+      <c r="G8" s="76"/>
+      <c r="H8" s="76" t="s">
+        <v>51</v>
+      </c>
+      <c r="I8" s="76" t="s">
+        <v>51</v>
+      </c>
+      <c r="J8" s="76" t="s">
+        <v>51</v>
+      </c>
+      <c r="K8" s="76"/>
+      <c r="L8" s="76"/>
+      <c r="M8" s="78" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="9" spans="2:15">
+      <c r="B9" s="59">
+        <v>3</v>
+      </c>
+      <c r="C9" s="75" t="s">
+        <v>156</v>
+      </c>
+      <c r="D9" s="76" t="s">
+        <v>159</v>
+      </c>
+      <c r="E9" s="76" t="s">
+        <v>133</v>
+      </c>
+      <c r="F9" s="77">
+        <v>4000</v>
+      </c>
+      <c r="G9" s="76"/>
+      <c r="H9" s="76"/>
+      <c r="I9" s="76"/>
+      <c r="J9" s="76" t="s">
+        <v>51</v>
+      </c>
+      <c r="K9" s="76"/>
+      <c r="L9" s="76"/>
+      <c r="M9" s="78"/>
+    </row>
+    <row r="10" spans="2:15">
+      <c r="B10" s="59">
+        <v>4</v>
+      </c>
+      <c r="C10" s="75" t="s">
+        <v>122</v>
+      </c>
+      <c r="D10" s="76" t="s">
+        <v>160</v>
+      </c>
+      <c r="E10" s="76" t="s">
+        <v>110</v>
+      </c>
+      <c r="F10" s="77"/>
+      <c r="G10" s="76"/>
+      <c r="H10" s="76"/>
+      <c r="I10" s="76"/>
+      <c r="J10" s="76" t="s">
+        <v>51</v>
+      </c>
+      <c r="K10" s="76"/>
+      <c r="L10" s="76" t="s">
+        <v>111</v>
+      </c>
+      <c r="M10" s="78"/>
+      <c r="O10" s="33"/>
+    </row>
+    <row r="11" spans="2:15">
+      <c r="B11" s="59">
+        <v>5</v>
+      </c>
+      <c r="C11" s="75" t="s">
+        <v>92</v>
+      </c>
+      <c r="D11" s="76" t="s">
+        <v>161</v>
+      </c>
+      <c r="E11" s="76" t="s">
+        <v>98</v>
+      </c>
+      <c r="F11" s="77">
+        <v>1</v>
+      </c>
+      <c r="G11" s="76"/>
+      <c r="H11" s="76"/>
+      <c r="I11" s="76"/>
+      <c r="J11" s="76" t="s">
+        <v>51</v>
+      </c>
+      <c r="K11" s="76" t="s">
+        <v>51</v>
+      </c>
+      <c r="L11" s="79" t="s">
+        <v>162</v>
+      </c>
+      <c r="M11" s="78" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="12" spans="2:15">
+      <c r="B12" s="59">
+        <v>6</v>
+      </c>
+      <c r="C12" s="75"/>
+      <c r="D12" s="76"/>
+      <c r="E12" s="76"/>
+      <c r="F12" s="77"/>
+      <c r="G12" s="76"/>
+      <c r="H12" s="76"/>
+      <c r="I12" s="76"/>
+      <c r="J12" s="76"/>
+      <c r="K12" s="79"/>
+      <c r="L12" s="76"/>
+      <c r="M12" s="83"/>
+    </row>
+    <row r="13" spans="2:15">
+      <c r="B13" s="59">
+        <v>7</v>
+      </c>
+      <c r="C13" s="75"/>
+      <c r="D13" s="76"/>
+      <c r="E13" s="76"/>
+      <c r="F13" s="77"/>
+      <c r="G13" s="76"/>
+      <c r="H13" s="76"/>
+      <c r="I13" s="76"/>
+      <c r="J13" s="76"/>
+      <c r="K13" s="76"/>
+      <c r="L13" s="76"/>
+      <c r="M13" s="83"/>
+    </row>
+    <row r="14" spans="2:15">
+      <c r="B14" s="59">
+        <v>8</v>
+      </c>
+      <c r="C14" s="75"/>
+      <c r="D14" s="76"/>
+      <c r="E14" s="76"/>
+      <c r="F14" s="77"/>
+      <c r="G14" s="76"/>
+      <c r="H14" s="76"/>
+      <c r="I14" s="76"/>
+      <c r="J14" s="76"/>
+      <c r="K14" s="76"/>
+      <c r="L14" s="76"/>
+      <c r="M14" s="78"/>
+    </row>
+    <row r="15" spans="2:15">
+      <c r="B15" s="59">
+        <v>9</v>
+      </c>
+      <c r="C15" s="80"/>
+      <c r="D15" s="80"/>
+      <c r="E15" s="76"/>
+      <c r="F15" s="81"/>
+      <c r="G15" s="82"/>
+      <c r="H15" s="82"/>
+      <c r="I15" s="82"/>
+      <c r="J15" s="76"/>
+      <c r="K15" s="76"/>
+      <c r="L15" s="82"/>
+      <c r="M15" s="83"/>
+    </row>
+    <row r="16" spans="2:15">
+      <c r="B16" s="59">
+        <v>10</v>
+      </c>
+      <c r="C16" s="90"/>
+      <c r="D16" s="90"/>
+      <c r="E16" s="90"/>
+      <c r="G16" s="82"/>
+      <c r="H16" s="82"/>
+      <c r="I16" s="82"/>
+      <c r="J16" s="76"/>
+      <c r="K16" s="82"/>
+      <c r="L16" s="82"/>
+      <c r="M16" s="78"/>
+    </row>
+    <row r="17" spans="2:16">
+      <c r="B17" s="59">
+        <v>11</v>
+      </c>
+      <c r="C17" s="80"/>
+      <c r="D17" s="80"/>
+      <c r="E17" s="80"/>
+      <c r="F17" s="81"/>
+      <c r="G17" s="82"/>
+      <c r="H17" s="82"/>
+      <c r="I17" s="82"/>
+      <c r="J17" s="76"/>
+      <c r="K17" s="76"/>
+      <c r="L17" s="82"/>
+      <c r="M17" s="83"/>
+    </row>
+    <row r="18" spans="2:16">
+      <c r="B18" s="59">
+        <v>12</v>
+      </c>
+      <c r="C18" s="75"/>
+      <c r="D18" s="76"/>
+      <c r="E18" s="76"/>
+      <c r="F18" s="77"/>
+      <c r="G18" s="76"/>
+      <c r="H18" s="76"/>
+      <c r="I18" s="76"/>
+      <c r="J18" s="76"/>
+      <c r="K18" s="79"/>
+      <c r="L18" s="79"/>
+      <c r="M18" s="78"/>
+    </row>
+    <row r="19" spans="2:16">
+      <c r="B19" s="59">
+        <v>13</v>
+      </c>
+      <c r="C19" s="76"/>
+      <c r="D19" s="76"/>
+      <c r="E19" s="76"/>
+      <c r="F19" s="77"/>
+      <c r="G19" s="76"/>
+      <c r="H19" s="76"/>
+      <c r="I19" s="76"/>
+      <c r="J19" s="76"/>
+      <c r="K19" s="76"/>
+      <c r="L19" s="76"/>
+      <c r="M19" s="78"/>
+    </row>
+    <row r="20" spans="2:16">
+      <c r="B20" s="59">
+        <v>14</v>
+      </c>
+      <c r="C20" s="76"/>
+      <c r="D20" s="76"/>
+      <c r="E20" s="76"/>
+      <c r="F20" s="77"/>
+      <c r="G20" s="76"/>
+      <c r="H20" s="76"/>
+      <c r="I20" s="76"/>
+      <c r="J20" s="76"/>
+      <c r="K20" s="76"/>
+      <c r="L20" s="76"/>
+      <c r="M20" s="78"/>
+    </row>
+    <row r="21" spans="2:16">
+      <c r="B21" s="59">
+        <v>15</v>
+      </c>
+      <c r="C21" s="76"/>
+      <c r="D21" s="76"/>
+      <c r="E21" s="76"/>
+      <c r="F21" s="77"/>
+      <c r="G21" s="76"/>
+      <c r="H21" s="76"/>
+      <c r="I21" s="76"/>
+      <c r="J21" s="76"/>
+      <c r="K21" s="76"/>
+      <c r="L21" s="76"/>
+      <c r="M21" s="78"/>
+      <c r="P21" s="20"/>
+    </row>
+    <row r="22" spans="2:16">
+      <c r="B22" s="59">
+        <v>16</v>
+      </c>
+      <c r="C22" s="76"/>
+      <c r="D22" s="76"/>
+      <c r="E22" s="76"/>
+      <c r="F22" s="77"/>
+      <c r="G22" s="76"/>
+      <c r="H22" s="76"/>
+      <c r="I22" s="76"/>
+      <c r="J22" s="76"/>
+      <c r="K22" s="76"/>
+      <c r="L22" s="76"/>
+      <c r="M22" s="78"/>
+    </row>
+    <row r="23" spans="2:16">
+      <c r="B23" s="59">
+        <v>17</v>
+      </c>
+      <c r="C23" s="84"/>
+      <c r="D23" s="84"/>
+      <c r="E23" s="84"/>
+      <c r="F23" s="84"/>
+      <c r="G23" s="84"/>
+      <c r="H23" s="84"/>
+      <c r="I23" s="84"/>
+      <c r="J23" s="84"/>
+      <c r="K23" s="84"/>
+      <c r="L23" s="84"/>
+      <c r="M23" s="85"/>
+    </row>
+    <row r="24" spans="2:16">
+      <c r="B24" s="59">
+        <v>18</v>
+      </c>
+      <c r="C24" s="84"/>
+      <c r="D24" s="84"/>
+      <c r="E24" s="84"/>
+      <c r="F24" s="84"/>
+      <c r="G24" s="84"/>
+      <c r="H24" s="84"/>
+      <c r="I24" s="84"/>
+      <c r="J24" s="84"/>
+      <c r="K24" s="84"/>
+      <c r="L24" s="84"/>
+      <c r="M24" s="85"/>
+    </row>
+    <row r="25" spans="2:16">
+      <c r="B25" s="59">
+        <v>19</v>
+      </c>
+      <c r="C25" s="76"/>
+      <c r="D25" s="76"/>
+      <c r="E25" s="76"/>
+      <c r="F25" s="77"/>
+      <c r="G25" s="76"/>
+      <c r="H25" s="76"/>
+      <c r="I25" s="76"/>
+      <c r="J25" s="76"/>
+      <c r="K25" s="79"/>
+      <c r="L25" s="76"/>
+      <c r="M25" s="78"/>
+    </row>
+    <row r="26" spans="2:16" ht="17.5" thickBot="1">
+      <c r="B26" s="60">
+        <v>20</v>
+      </c>
+      <c r="C26" s="86"/>
+      <c r="D26" s="86"/>
+      <c r="E26" s="86"/>
+      <c r="F26" s="87"/>
+      <c r="G26" s="86"/>
+      <c r="H26" s="86"/>
+      <c r="I26" s="86"/>
+      <c r="J26" s="86"/>
+      <c r="K26" s="88"/>
+      <c r="L26" s="86"/>
+      <c r="M26" s="89"/>
+    </row>
+    <row r="27" spans="2:16">
+      <c r="B27" s="124" t="s">
+        <v>4</v>
+      </c>
+      <c r="C27" s="125"/>
+      <c r="D27" s="126" t="s">
+        <v>87</v>
+      </c>
+      <c r="E27" s="127"/>
+      <c r="F27" s="127"/>
+      <c r="G27" s="127"/>
+      <c r="H27" s="127"/>
+      <c r="I27" s="127"/>
+      <c r="J27" s="127"/>
+      <c r="K27" s="127"/>
+      <c r="L27" s="127"/>
+      <c r="M27" s="128"/>
+    </row>
+    <row r="28" spans="2:16" ht="17.5" thickBot="1">
+      <c r="B28" s="129" t="s">
+        <v>36</v>
+      </c>
+      <c r="C28" s="130"/>
+      <c r="D28" s="131" t="s">
+        <v>74</v>
+      </c>
+      <c r="E28" s="132"/>
+      <c r="F28" s="132"/>
+      <c r="G28" s="132"/>
+      <c r="H28" s="132"/>
+      <c r="I28" s="132"/>
+      <c r="J28" s="132"/>
+      <c r="K28" s="132"/>
+      <c r="L28" s="132"/>
+      <c r="M28" s="133"/>
+    </row>
+  </sheetData>
+  <mergeCells count="13">
+    <mergeCell ref="B5:M5"/>
+    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="D27:M27"/>
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="D28:M28"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="D2:M2"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="D3:M3"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="D4:I4"/>
+    <mergeCell ref="J4:K4"/>
+    <mergeCell ref="L4:M4"/>
+  </mergeCells>
+  <phoneticPr fontId="11" type="noConversion"/>
+  <pageMargins left="0.69986110925674438" right="0.69986110925674438" top="0.75" bottom="0.75" header="0.30000001192092896" footer="0.30000001192092896"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4A4AB89E-34CA-4430-9777-BDE1013D2BC6}">
   <sheetPr>
     <tabColor rgb="FFC0504D"/>
@@ -4091,78 +4719,78 @@
   <sheetData>
     <row r="1" spans="2:15" ht="17.5" thickBot="1"/>
     <row r="2" spans="2:15">
-      <c r="B2" s="116" t="s">
+      <c r="B2" s="103" t="s">
         <v>34</v>
       </c>
-      <c r="C2" s="117"/>
-      <c r="D2" s="118" t="s">
+      <c r="C2" s="104"/>
+      <c r="D2" s="105" t="s">
         <v>81</v>
       </c>
-      <c r="E2" s="119"/>
-      <c r="F2" s="119"/>
-      <c r="G2" s="119"/>
-      <c r="H2" s="119"/>
-      <c r="I2" s="119"/>
-      <c r="J2" s="119"/>
-      <c r="K2" s="119"/>
-      <c r="L2" s="119"/>
-      <c r="M2" s="120"/>
+      <c r="E2" s="106"/>
+      <c r="F2" s="106"/>
+      <c r="G2" s="106"/>
+      <c r="H2" s="106"/>
+      <c r="I2" s="106"/>
+      <c r="J2" s="106"/>
+      <c r="K2" s="106"/>
+      <c r="L2" s="106"/>
+      <c r="M2" s="107"/>
     </row>
     <row r="3" spans="2:15">
-      <c r="B3" s="121" t="s">
+      <c r="B3" s="108" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="122"/>
-      <c r="D3" s="123" t="s">
+      <c r="C3" s="109"/>
+      <c r="D3" s="110" t="s">
         <v>136</v>
       </c>
-      <c r="E3" s="124"/>
-      <c r="F3" s="124"/>
-      <c r="G3" s="124"/>
-      <c r="H3" s="124"/>
-      <c r="I3" s="124"/>
-      <c r="J3" s="124"/>
-      <c r="K3" s="124"/>
-      <c r="L3" s="124"/>
-      <c r="M3" s="125"/>
+      <c r="E3" s="111"/>
+      <c r="F3" s="111"/>
+      <c r="G3" s="111"/>
+      <c r="H3" s="111"/>
+      <c r="I3" s="111"/>
+      <c r="J3" s="111"/>
+      <c r="K3" s="111"/>
+      <c r="L3" s="111"/>
+      <c r="M3" s="112"/>
     </row>
     <row r="4" spans="2:15" ht="17.5" thickBot="1">
-      <c r="B4" s="126" t="s">
+      <c r="B4" s="113" t="s">
         <v>13</v>
       </c>
-      <c r="C4" s="127"/>
-      <c r="D4" s="128" t="s">
+      <c r="C4" s="114"/>
+      <c r="D4" s="115" t="s">
         <v>85</v>
       </c>
-      <c r="E4" s="129"/>
-      <c r="F4" s="129"/>
-      <c r="G4" s="129"/>
-      <c r="H4" s="129"/>
-      <c r="I4" s="130"/>
-      <c r="J4" s="131" t="s">
+      <c r="E4" s="116"/>
+      <c r="F4" s="116"/>
+      <c r="G4" s="116"/>
+      <c r="H4" s="116"/>
+      <c r="I4" s="117"/>
+      <c r="J4" s="118" t="s">
         <v>12</v>
       </c>
-      <c r="K4" s="131"/>
-      <c r="L4" s="132" t="s">
+      <c r="K4" s="118"/>
+      <c r="L4" s="119" t="s">
         <v>86</v>
       </c>
-      <c r="M4" s="133"/>
+      <c r="M4" s="120"/>
     </row>
     <row r="5" spans="2:15" ht="23.5" thickBot="1">
-      <c r="B5" s="103" t="s">
+      <c r="B5" s="121" t="s">
         <v>19</v>
       </c>
-      <c r="C5" s="104"/>
-      <c r="D5" s="104"/>
-      <c r="E5" s="104"/>
-      <c r="F5" s="104"/>
-      <c r="G5" s="104"/>
-      <c r="H5" s="104"/>
-      <c r="I5" s="104"/>
-      <c r="J5" s="104"/>
-      <c r="K5" s="104"/>
-      <c r="L5" s="104"/>
-      <c r="M5" s="105"/>
+      <c r="C5" s="122"/>
+      <c r="D5" s="122"/>
+      <c r="E5" s="122"/>
+      <c r="F5" s="122"/>
+      <c r="G5" s="122"/>
+      <c r="H5" s="122"/>
+      <c r="I5" s="122"/>
+      <c r="J5" s="122"/>
+      <c r="K5" s="122"/>
+      <c r="L5" s="122"/>
+      <c r="M5" s="123"/>
     </row>
     <row r="6" spans="2:15" ht="17.5" thickBot="1">
       <c r="B6" s="55" t="s">
@@ -4618,43 +5246,48 @@
       <c r="M26" s="89"/>
     </row>
     <row r="27" spans="2:16">
-      <c r="B27" s="106" t="s">
+      <c r="B27" s="124" t="s">
         <v>4</v>
       </c>
-      <c r="C27" s="107"/>
-      <c r="D27" s="108" t="s">
+      <c r="C27" s="125"/>
+      <c r="D27" s="126" t="s">
         <v>87</v>
       </c>
-      <c r="E27" s="109"/>
-      <c r="F27" s="109"/>
-      <c r="G27" s="109"/>
-      <c r="H27" s="109"/>
-      <c r="I27" s="109"/>
-      <c r="J27" s="109"/>
-      <c r="K27" s="109"/>
-      <c r="L27" s="109"/>
-      <c r="M27" s="110"/>
+      <c r="E27" s="127"/>
+      <c r="F27" s="127"/>
+      <c r="G27" s="127"/>
+      <c r="H27" s="127"/>
+      <c r="I27" s="127"/>
+      <c r="J27" s="127"/>
+      <c r="K27" s="127"/>
+      <c r="L27" s="127"/>
+      <c r="M27" s="128"/>
     </row>
     <row r="28" spans="2:16" ht="17.5" thickBot="1">
-      <c r="B28" s="111" t="s">
+      <c r="B28" s="129" t="s">
         <v>36</v>
       </c>
-      <c r="C28" s="112"/>
-      <c r="D28" s="113" t="s">
+      <c r="C28" s="130"/>
+      <c r="D28" s="131" t="s">
         <v>74</v>
       </c>
-      <c r="E28" s="114"/>
-      <c r="F28" s="114"/>
-      <c r="G28" s="114"/>
-      <c r="H28" s="114"/>
-      <c r="I28" s="114"/>
-      <c r="J28" s="114"/>
-      <c r="K28" s="114"/>
-      <c r="L28" s="114"/>
-      <c r="M28" s="115"/>
+      <c r="E28" s="132"/>
+      <c r="F28" s="132"/>
+      <c r="G28" s="132"/>
+      <c r="H28" s="132"/>
+      <c r="I28" s="132"/>
+      <c r="J28" s="132"/>
+      <c r="K28" s="132"/>
+      <c r="L28" s="132"/>
+      <c r="M28" s="133"/>
     </row>
   </sheetData>
   <mergeCells count="13">
+    <mergeCell ref="B5:M5"/>
+    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="D27:M27"/>
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="D28:M28"/>
     <mergeCell ref="B2:C2"/>
     <mergeCell ref="D2:M2"/>
     <mergeCell ref="B3:C3"/>
@@ -4663,11 +5296,6 @@
     <mergeCell ref="D4:I4"/>
     <mergeCell ref="J4:K4"/>
     <mergeCell ref="L4:M4"/>
-    <mergeCell ref="B5:M5"/>
-    <mergeCell ref="B27:C27"/>
-    <mergeCell ref="D27:M27"/>
-    <mergeCell ref="B28:C28"/>
-    <mergeCell ref="D28:M28"/>
   </mergeCells>
   <phoneticPr fontId="11" type="noConversion"/>
   <pageMargins left="0.69986110925674438" right="0.69986110925674438" top="0.75" bottom="0.75" header="0.30000001192092896" footer="0.30000001192092896"/>
@@ -4675,7 +5303,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4B340A10-4685-0746-80AF-2A07E7C25663}">
   <sheetPr>
     <tabColor rgb="FFC0504D"/>
@@ -4701,74 +5329,74 @@
   <sheetData>
     <row r="1" spans="2:15" ht="17.5" thickBot="1"/>
     <row r="2" spans="2:15">
-      <c r="B2" s="134" t="s">
+      <c r="B2" s="147" t="s">
         <v>34</v>
       </c>
-      <c r="C2" s="135"/>
-      <c r="D2" s="136" t="s">
+      <c r="C2" s="148"/>
+      <c r="D2" s="149" t="s">
         <v>39</v>
       </c>
-      <c r="E2" s="137"/>
-      <c r="F2" s="137"/>
-      <c r="G2" s="137"/>
-      <c r="H2" s="137"/>
-      <c r="I2" s="137"/>
-      <c r="J2" s="137"/>
-      <c r="K2" s="137"/>
-      <c r="L2" s="137"/>
-      <c r="M2" s="138"/>
+      <c r="E2" s="150"/>
+      <c r="F2" s="150"/>
+      <c r="G2" s="150"/>
+      <c r="H2" s="150"/>
+      <c r="I2" s="150"/>
+      <c r="J2" s="150"/>
+      <c r="K2" s="150"/>
+      <c r="L2" s="150"/>
+      <c r="M2" s="151"/>
     </row>
     <row r="3" spans="2:15">
-      <c r="B3" s="139" t="s">
+      <c r="B3" s="152" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="140"/>
-      <c r="D3" s="141" t="s">
+      <c r="C3" s="153"/>
+      <c r="D3" s="154" t="s">
         <v>56</v>
       </c>
-      <c r="E3" s="142"/>
-      <c r="F3" s="142"/>
-      <c r="G3" s="142"/>
-      <c r="H3" s="142"/>
-      <c r="I3" s="142"/>
-      <c r="J3" s="142"/>
-      <c r="K3" s="142"/>
-      <c r="L3" s="142"/>
-      <c r="M3" s="143"/>
+      <c r="E3" s="155"/>
+      <c r="F3" s="155"/>
+      <c r="G3" s="155"/>
+      <c r="H3" s="155"/>
+      <c r="I3" s="155"/>
+      <c r="J3" s="155"/>
+      <c r="K3" s="155"/>
+      <c r="L3" s="155"/>
+      <c r="M3" s="156"/>
     </row>
     <row r="4" spans="2:15" ht="17.5" thickBot="1">
-      <c r="B4" s="144" t="s">
+      <c r="B4" s="157" t="s">
         <v>13</v>
       </c>
-      <c r="C4" s="145"/>
-      <c r="D4" s="146"/>
-      <c r="E4" s="147"/>
-      <c r="F4" s="147"/>
-      <c r="G4" s="147"/>
-      <c r="H4" s="147"/>
-      <c r="I4" s="148"/>
-      <c r="J4" s="145" t="s">
+      <c r="C4" s="158"/>
+      <c r="D4" s="159"/>
+      <c r="E4" s="160"/>
+      <c r="F4" s="160"/>
+      <c r="G4" s="160"/>
+      <c r="H4" s="160"/>
+      <c r="I4" s="161"/>
+      <c r="J4" s="158" t="s">
         <v>12</v>
       </c>
-      <c r="K4" s="145"/>
-      <c r="L4" s="149"/>
-      <c r="M4" s="150"/>
+      <c r="K4" s="158"/>
+      <c r="L4" s="162"/>
+      <c r="M4" s="163"/>
     </row>
     <row r="5" spans="2:15" ht="23.5" thickBot="1">
-      <c r="B5" s="151" t="s">
+      <c r="B5" s="134" t="s">
         <v>19</v>
       </c>
-      <c r="C5" s="152"/>
-      <c r="D5" s="152"/>
-      <c r="E5" s="152"/>
-      <c r="F5" s="152"/>
-      <c r="G5" s="152"/>
-      <c r="H5" s="152"/>
-      <c r="I5" s="152"/>
-      <c r="J5" s="152"/>
-      <c r="K5" s="152"/>
-      <c r="L5" s="152"/>
-      <c r="M5" s="153"/>
+      <c r="C5" s="135"/>
+      <c r="D5" s="135"/>
+      <c r="E5" s="135"/>
+      <c r="F5" s="135"/>
+      <c r="G5" s="135"/>
+      <c r="H5" s="135"/>
+      <c r="I5" s="135"/>
+      <c r="J5" s="135"/>
+      <c r="K5" s="135"/>
+      <c r="L5" s="135"/>
+      <c r="M5" s="136"/>
     </row>
     <row r="6" spans="2:15" ht="17.5" thickBot="1">
       <c r="B6" s="49" t="s">
@@ -5277,48 +5905,43 @@
       <c r="M26" s="32"/>
     </row>
     <row r="27" spans="2:16">
-      <c r="B27" s="154" t="s">
+      <c r="B27" s="137" t="s">
         <v>4</v>
       </c>
-      <c r="C27" s="155"/>
-      <c r="D27" s="156" t="s">
+      <c r="C27" s="138"/>
+      <c r="D27" s="139" t="s">
         <v>17</v>
       </c>
-      <c r="E27" s="157"/>
-      <c r="F27" s="157"/>
-      <c r="G27" s="157"/>
-      <c r="H27" s="157"/>
-      <c r="I27" s="157"/>
-      <c r="J27" s="157"/>
-      <c r="K27" s="157"/>
-      <c r="L27" s="157"/>
-      <c r="M27" s="158"/>
+      <c r="E27" s="140"/>
+      <c r="F27" s="140"/>
+      <c r="G27" s="140"/>
+      <c r="H27" s="140"/>
+      <c r="I27" s="140"/>
+      <c r="J27" s="140"/>
+      <c r="K27" s="140"/>
+      <c r="L27" s="140"/>
+      <c r="M27" s="141"/>
     </row>
     <row r="28" spans="2:16" ht="17.5" thickBot="1">
-      <c r="B28" s="159" t="s">
+      <c r="B28" s="142" t="s">
         <v>36</v>
       </c>
-      <c r="C28" s="160"/>
-      <c r="D28" s="161" t="s">
+      <c r="C28" s="143"/>
+      <c r="D28" s="144" t="s">
         <v>5</v>
       </c>
-      <c r="E28" s="162"/>
-      <c r="F28" s="162"/>
-      <c r="G28" s="162"/>
-      <c r="H28" s="162"/>
-      <c r="I28" s="162"/>
-      <c r="J28" s="162"/>
-      <c r="K28" s="162"/>
-      <c r="L28" s="162"/>
-      <c r="M28" s="163"/>
+      <c r="E28" s="145"/>
+      <c r="F28" s="145"/>
+      <c r="G28" s="145"/>
+      <c r="H28" s="145"/>
+      <c r="I28" s="145"/>
+      <c r="J28" s="145"/>
+      <c r="K28" s="145"/>
+      <c r="L28" s="145"/>
+      <c r="M28" s="146"/>
     </row>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="B5:M5"/>
-    <mergeCell ref="B27:C27"/>
-    <mergeCell ref="D27:M27"/>
-    <mergeCell ref="B28:C28"/>
-    <mergeCell ref="D28:M28"/>
     <mergeCell ref="B2:C2"/>
     <mergeCell ref="D2:M2"/>
     <mergeCell ref="B3:C3"/>
@@ -5327,6 +5950,11 @@
     <mergeCell ref="D4:I4"/>
     <mergeCell ref="J4:K4"/>
     <mergeCell ref="L4:M4"/>
+    <mergeCell ref="B5:M5"/>
+    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="D27:M27"/>
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="D28:M28"/>
   </mergeCells>
   <phoneticPr fontId="12" type="noConversion"/>
   <pageMargins left="0.69986110925674438" right="0.69986110925674438" top="0.75" bottom="0.75" header="0.30000001192092896" footer="0.30000001192092896"/>
